--- a/DIV3_ANALYSIS/ComparedResults/DIV3_ADA_Tables.xlsx
+++ b/DIV3_ANALYSIS/ComparedResults/DIV3_ADA_Tables.xlsx
@@ -38,10 +38,10 @@
       <color rgb="00FFFFFF"/>
     </font>
     <font>
-      <color rgb="00006100"/>
+      <color rgb="009C0006"/>
     </font>
     <font>
-      <color rgb="009C0006"/>
+      <color rgb="00006100"/>
     </font>
   </fonts>
   <fills count="5">
@@ -59,14 +59,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00C6EFCE"/>
-        <bgColor rgb="00C6EFCE"/>
+        <fgColor rgb="00FFC7CE"/>
+        <bgColor rgb="00FFC7CE"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FFC7CE"/>
-        <bgColor rgb="00FFC7CE"/>
+        <fgColor rgb="00C6EFCE"/>
+        <bgColor rgb="00C6EFCE"/>
       </patternFill>
     </fill>
   </fills>
@@ -464,7 +464,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,7 +472,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="32.3" customWidth="1" min="1" max="1"/>
+    <col width="44.3" customWidth="1" min="1" max="1"/>
     <col width="8.300000000000001" customWidth="1" min="2" max="2"/>
     <col width="10.3" customWidth="1" min="3" max="3"/>
     <col width="8.300000000000001" customWidth="1" min="4" max="4"/>
@@ -507,13 +507,13 @@
         </is>
       </c>
       <c r="B2" s="3" t="n">
+        <v>84.13</v>
+      </c>
+      <c r="C2" s="3" t="n">
         <v>93.31</v>
       </c>
-      <c r="C2" s="3" t="n">
-        <v>86.69</v>
-      </c>
       <c r="D2" s="4" t="n">
-        <v>6.62</v>
+        <v>-9.18</v>
       </c>
     </row>
     <row r="3">
@@ -523,13 +523,13 @@
         </is>
       </c>
       <c r="B3" s="3" t="n">
+        <v>77.29000000000001</v>
+      </c>
+      <c r="C3" s="3" t="n">
         <v>68.38</v>
       </c>
-      <c r="C3" s="3" t="n">
-        <v>66.81</v>
-      </c>
-      <c r="D3" s="4" t="n">
-        <v>1.57</v>
+      <c r="D3" s="5" t="n">
+        <v>8.91</v>
       </c>
     </row>
     <row r="4">
@@ -539,205 +539,205 @@
         </is>
       </c>
       <c r="B4" s="3" t="n">
+        <v>66.67</v>
+      </c>
+      <c r="C4" s="3" t="n">
         <v>79.84</v>
       </c>
-      <c r="C4" s="3" t="n">
-        <v>71.44</v>
-      </c>
       <c r="D4" s="4" t="n">
-        <v>8.4</v>
+        <v>-13.17</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="inlineStr">
         <is>
-          <t>BRANDON JACKSON</t>
+          <t>BREISHABREE TRANSPORTATION LLC</t>
         </is>
       </c>
       <c r="B5" s="3" t="n">
-        <v>0</v>
+        <v>68.55</v>
       </c>
       <c r="C5" s="3" t="n">
-        <v>55.06</v>
-      </c>
-      <c r="D5" s="5" t="n">
-        <v>-55.06</v>
+        <v>74.17</v>
+      </c>
+      <c r="D5" s="4" t="n">
+        <v>-5.62</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="inlineStr">
         <is>
-          <t>BREISHABREE TRANSPORTATION LLC</t>
+          <t>BROOKES TRANSPORTATION, LLC</t>
         </is>
       </c>
       <c r="B6" s="3" t="n">
-        <v>74.17</v>
+        <v>351.51</v>
       </c>
       <c r="C6" s="3" t="n">
-        <v>62.83</v>
+        <v>413.17</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>11.34</v>
+        <v>-61.66</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="3" t="inlineStr">
         <is>
-          <t>BROOKES TRANSPORTATION, LLC</t>
+          <t>BTS INVESTORS GROUP, LLC</t>
         </is>
       </c>
       <c r="B7" s="3" t="n">
-        <v>413.17</v>
+        <v>62.18</v>
       </c>
       <c r="C7" s="3" t="n">
-        <v>388.7</v>
+        <v>71.2</v>
       </c>
       <c r="D7" s="4" t="n">
-        <v>24.47</v>
+        <v>-9.02</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="3" t="inlineStr">
         <is>
-          <t>BTS INVESTORS GROUP, LLC</t>
+          <t>CEASAR WS LLC</t>
         </is>
       </c>
       <c r="B8" s="3" t="n">
-        <v>71.2</v>
+        <v>143.44</v>
       </c>
       <c r="C8" s="3" t="n">
-        <v>78.31999999999999</v>
-      </c>
-      <c r="D8" s="5" t="n">
-        <v>-7.12</v>
+        <v>147</v>
+      </c>
+      <c r="D8" s="4" t="n">
+        <v>-3.56</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="3" t="inlineStr">
         <is>
-          <t>CEASAR WS LLC</t>
+          <t>DEECAL ENTERPRISE</t>
         </is>
       </c>
       <c r="B9" s="3" t="n">
-        <v>147</v>
+        <v>60.6</v>
       </c>
       <c r="C9" s="3" t="n">
-        <v>144.18</v>
-      </c>
-      <c r="D9" s="4" t="n">
-        <v>2.82</v>
+        <v>0</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>60.6</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="3" t="inlineStr">
         <is>
-          <t>HOUND OF JUSTICE</t>
+          <t>HEALTH DIRECT TRANSPORTATION SERVICES INC.</t>
         </is>
       </c>
       <c r="B10" s="3" t="n">
-        <v>9.19</v>
+        <v>46.41</v>
       </c>
       <c r="C10" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="D10" s="4" t="n">
-        <v>9.19</v>
+      <c r="D10" s="5" t="n">
+        <v>46.41</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="3" t="inlineStr">
         <is>
-          <t>HUB SOLUTIONS</t>
+          <t>HOUND OF JUSTICE</t>
         </is>
       </c>
       <c r="B11" s="3" t="n">
-        <v>103.24</v>
+        <v>34.81</v>
       </c>
       <c r="C11" s="3" t="n">
-        <v>89.86</v>
-      </c>
-      <c r="D11" s="4" t="n">
-        <v>13.38</v>
+        <v>9.19</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>25.62</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="3" t="inlineStr">
         <is>
-          <t>HUNDREDFOLD SERVICES, LLC</t>
+          <t>HUB SOLUTIONS</t>
         </is>
       </c>
       <c r="B12" s="3" t="n">
-        <v>0</v>
+        <v>101.45</v>
       </c>
       <c r="C12" s="3" t="n">
-        <v>7.36</v>
-      </c>
-      <c r="D12" s="5" t="n">
-        <v>-7.36</v>
+        <v>103.24</v>
+      </c>
+      <c r="D12" s="4" t="n">
+        <v>-1.79</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="3" t="inlineStr">
         <is>
-          <t>INNER CITY LOGISTICS LLC</t>
+          <t>IGWE SIX TRANSIT LLC</t>
         </is>
       </c>
       <c r="B13" s="3" t="n">
-        <v>140.66</v>
+        <v>15.91</v>
       </c>
       <c r="C13" s="3" t="n">
-        <v>142.58</v>
+        <v>0</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>-1.92</v>
+        <v>15.91</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="3" t="inlineStr">
         <is>
-          <t>LA PATRONA SERVICES LLC</t>
+          <t>INNER CITY LOGISTICS LLC</t>
         </is>
       </c>
       <c r="B14" s="3" t="n">
-        <v>82.12</v>
+        <v>113.86</v>
       </c>
       <c r="C14" s="3" t="n">
-        <v>78.56999999999999</v>
+        <v>140.66</v>
       </c>
       <c r="D14" s="4" t="n">
-        <v>3.55</v>
+        <v>-26.8</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="3" t="inlineStr">
         <is>
-          <t>LADY K HEALTHCARE</t>
+          <t>LA PATRONA SERVICES LLC</t>
         </is>
       </c>
       <c r="B15" s="3" t="n">
-        <v>4.59</v>
+        <v>67.15000000000001</v>
       </c>
       <c r="C15" s="3" t="n">
-        <v>67.26000000000001</v>
-      </c>
-      <c r="D15" s="5" t="n">
-        <v>-62.67</v>
+        <v>82.12</v>
+      </c>
+      <c r="D15" s="4" t="n">
+        <v>-14.97</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="3" t="inlineStr">
         <is>
-          <t>LAQUESHA HENDERSON</t>
+          <t>LADY K HEALTHCARE</t>
         </is>
       </c>
       <c r="B16" s="3" t="n">
         <v>0</v>
       </c>
       <c r="C16" s="3" t="n">
-        <v>44.1</v>
-      </c>
-      <c r="D16" s="5" t="n">
-        <v>-44.1</v>
+        <v>4.59</v>
+      </c>
+      <c r="D16" s="4" t="n">
+        <v>-4.59</v>
       </c>
     </row>
     <row r="17">
@@ -747,13 +747,13 @@
         </is>
       </c>
       <c r="B17" s="3" t="n">
+        <v>66.61</v>
+      </c>
+      <c r="C17" s="3" t="n">
         <v>76.77</v>
       </c>
-      <c r="C17" s="3" t="n">
-        <v>74.25</v>
-      </c>
       <c r="D17" s="4" t="n">
-        <v>2.52</v>
+        <v>-10.16</v>
       </c>
     </row>
     <row r="18">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="B18" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" s="3" t="n">
         <v>8.75</v>
       </c>
-      <c r="C18" s="3" t="n">
-        <v>64.08</v>
-      </c>
-      <c r="D18" s="5" t="n">
-        <v>-55.33</v>
+      <c r="D18" s="4" t="n">
+        <v>-8.75</v>
       </c>
     </row>
     <row r="19">
@@ -779,13 +779,13 @@
         </is>
       </c>
       <c r="B19" s="3" t="n">
+        <v>70.88</v>
+      </c>
+      <c r="C19" s="3" t="n">
         <v>72.15000000000001</v>
       </c>
-      <c r="C19" s="3" t="n">
-        <v>74.84</v>
-      </c>
-      <c r="D19" s="5" t="n">
-        <v>-2.69</v>
+      <c r="D19" s="4" t="n">
+        <v>-1.27</v>
       </c>
     </row>
     <row r="20">
@@ -795,13 +795,13 @@
         </is>
       </c>
       <c r="B20" s="3" t="n">
+        <v>76.66</v>
+      </c>
+      <c r="C20" s="3" t="n">
         <v>76.64</v>
       </c>
-      <c r="C20" s="3" t="n">
-        <v>113.64</v>
-      </c>
       <c r="D20" s="5" t="n">
-        <v>-37</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="21">
@@ -811,13 +811,13 @@
         </is>
       </c>
       <c r="B21" s="3" t="n">
+        <v>70.31</v>
+      </c>
+      <c r="C21" s="3" t="n">
         <v>78.62</v>
       </c>
-      <c r="C21" s="3" t="n">
-        <v>74.31999999999999</v>
-      </c>
       <c r="D21" s="4" t="n">
-        <v>4.3</v>
+        <v>-8.31</v>
       </c>
     </row>
     <row r="22">
@@ -827,61 +827,45 @@
         </is>
       </c>
       <c r="B22" s="3" t="n">
+        <v>126.5</v>
+      </c>
+      <c r="C22" s="3" t="n">
         <v>142.19</v>
       </c>
-      <c r="C22" s="3" t="n">
-        <v>120.71</v>
-      </c>
       <c r="D22" s="4" t="n">
-        <v>21.48</v>
+        <v>-15.69</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="3" t="inlineStr">
         <is>
-          <t>RESILIENT LOGISTICS MGMT LLC</t>
+          <t>ROYAL T KARE LLC</t>
         </is>
       </c>
       <c r="B23" s="3" t="n">
-        <v>0</v>
+        <v>344.33</v>
       </c>
       <c r="C23" s="3" t="n">
-        <v>47.39</v>
-      </c>
-      <c r="D23" s="5" t="n">
-        <v>-47.39</v>
+        <v>366.29</v>
+      </c>
+      <c r="D23" s="4" t="n">
+        <v>-21.96</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="3" t="inlineStr">
         <is>
-          <t>ROYAL T KARE LLC</t>
+          <t>SERENITY CARE TRANSPORTATION LCC</t>
         </is>
       </c>
       <c r="B24" s="3" t="n">
-        <v>366.29</v>
+        <v>13.54</v>
       </c>
       <c r="C24" s="3" t="n">
-        <v>412.85</v>
+        <v>0</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>-46.56</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="3" t="inlineStr">
-        <is>
-          <t>SERENITY CARE TRANSPORTATION</t>
-        </is>
-      </c>
-      <c r="B25" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C25" s="3" t="n">
-        <v>24.75</v>
-      </c>
-      <c r="D25" s="5" t="n">
-        <v>-24.75</v>
+        <v>13.54</v>
       </c>
     </row>
   </sheetData>
@@ -895,7 +879,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -903,7 +887,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="32.3" customWidth="1" min="1" max="1"/>
+    <col width="44.3" customWidth="1" min="1" max="1"/>
     <col width="8.300000000000001" customWidth="1" min="2" max="2"/>
     <col width="10.3" customWidth="1" min="3" max="3"/>
     <col width="8.300000000000001" customWidth="1" min="4" max="4"/>
@@ -938,13 +922,13 @@
         </is>
       </c>
       <c r="B2" s="3" t="n">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="C2" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="D2" s="3" t="n">
-        <v>0</v>
+      <c r="D2" s="4" t="n">
+        <v>-0.03</v>
       </c>
     </row>
     <row r="3">
@@ -954,13 +938,13 @@
         </is>
       </c>
       <c r="B3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3" t="n">
         <v>0.89</v>
       </c>
-      <c r="C3" s="3" t="n">
-        <v>0.9</v>
-      </c>
       <c r="D3" s="5" t="n">
-        <v>-0.01</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="4">
@@ -970,205 +954,205 @@
         </is>
       </c>
       <c r="B4" s="3" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="C4" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="C4" s="3" t="n">
-        <v>0.96</v>
-      </c>
       <c r="D4" s="4" t="n">
-        <v>0.04</v>
+        <v>-0.11</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="inlineStr">
         <is>
-          <t>BRANDON JACKSON</t>
+          <t>BREISHABREE TRANSPORTATION LLC</t>
         </is>
       </c>
       <c r="B5" s="3" t="n">
-        <v>0</v>
+        <v>0.92</v>
       </c>
       <c r="C5" s="3" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="D5" s="5" t="n">
-        <v>-0.75</v>
+        <v>1</v>
+      </c>
+      <c r="D5" s="4" t="n">
+        <v>-0.08</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="inlineStr">
         <is>
-          <t>BREISHABREE TRANSPORTATION LLC</t>
+          <t>BROOKES TRANSPORTATION, LLC</t>
         </is>
       </c>
       <c r="B6" s="3" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="C6" s="3" t="n">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>0.08</v>
+        <v>-0.1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="3" t="inlineStr">
         <is>
-          <t>BROOKES TRANSPORTATION, LLC</t>
+          <t>BTS INVESTORS GROUP, LLC</t>
         </is>
       </c>
       <c r="B7" s="3" t="n">
-        <v>0.85</v>
+        <v>0.75</v>
       </c>
       <c r="C7" s="3" t="n">
-        <v>0.8</v>
+        <v>0.87</v>
       </c>
       <c r="D7" s="4" t="n">
-        <v>0.05</v>
+        <v>-0.12</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="3" t="inlineStr">
         <is>
-          <t>BTS INVESTORS GROUP, LLC</t>
+          <t>CEASAR WS LLC</t>
         </is>
       </c>
       <c r="B8" s="3" t="n">
-        <v>0.87</v>
+        <v>0.99</v>
       </c>
       <c r="C8" s="3" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="D8" s="5" t="n">
-        <v>-0.1</v>
+        <v>1</v>
+      </c>
+      <c r="D8" s="4" t="n">
+        <v>-0.01</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="3" t="inlineStr">
         <is>
-          <t>CEASAR WS LLC</t>
+          <t>DEECAL ENTERPRISE</t>
         </is>
       </c>
       <c r="B9" s="3" t="n">
-        <v>1</v>
+        <v>0.82</v>
       </c>
       <c r="C9" s="3" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="D9" s="4" t="n">
-        <v>0.01</v>
+        <v>0</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0.82</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="3" t="inlineStr">
         <is>
-          <t>HOUND OF JUSTICE</t>
+          <t>HEALTH DIRECT TRANSPORTATION SERVICES INC.</t>
         </is>
       </c>
       <c r="B10" s="3" t="n">
-        <v>0.25</v>
+        <v>0.62</v>
       </c>
       <c r="C10" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="D10" s="4" t="n">
-        <v>0.25</v>
+      <c r="D10" s="5" t="n">
+        <v>0.62</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="3" t="inlineStr">
         <is>
-          <t>HUB SOLUTIONS</t>
+          <t>HOUND OF JUSTICE</t>
         </is>
       </c>
       <c r="B11" s="3" t="n">
-        <v>1</v>
+        <v>0.51</v>
       </c>
       <c r="C11" s="3" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="D11" s="4" t="n">
-        <v>0.03</v>
+        <v>0.25</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>0.26</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="3" t="inlineStr">
         <is>
-          <t>HUNDREDFOLD SERVICES, LLC</t>
+          <t>HUB SOLUTIONS</t>
         </is>
       </c>
       <c r="B12" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12" s="3" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="D12" s="5" t="n">
-        <v>-0.2</v>
+        <v>1</v>
+      </c>
+      <c r="D12" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="3" t="inlineStr">
         <is>
-          <t>INNER CITY LOGISTICS LLC</t>
+          <t>IGWE SIX TRANSIT LLC</t>
         </is>
       </c>
       <c r="B13" s="3" t="n">
-        <v>0.98</v>
+        <v>0.48</v>
       </c>
       <c r="C13" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>-0.02</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="3" t="inlineStr">
         <is>
-          <t>LA PATRONA SERVICES LLC</t>
+          <t>INNER CITY LOGISTICS LLC</t>
         </is>
       </c>
       <c r="B14" s="3" t="n">
-        <v>0.99</v>
+        <v>0.85</v>
       </c>
       <c r="C14" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D14" s="5" t="n">
-        <v>-0.01</v>
+        <v>0.98</v>
+      </c>
+      <c r="D14" s="4" t="n">
+        <v>-0.13</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="3" t="inlineStr">
         <is>
-          <t>LADY K HEALTHCARE</t>
+          <t>LA PATRONA SERVICES LLC</t>
         </is>
       </c>
       <c r="B15" s="3" t="n">
-        <v>0.13</v>
+        <v>0.93</v>
       </c>
       <c r="C15" s="3" t="n">
-        <v>0.89</v>
-      </c>
-      <c r="D15" s="5" t="n">
-        <v>-0.76</v>
+        <v>0.99</v>
+      </c>
+      <c r="D15" s="4" t="n">
+        <v>-0.06</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="3" t="inlineStr">
         <is>
-          <t>LAQUESHA HENDERSON</t>
+          <t>LADY K HEALTHCARE</t>
         </is>
       </c>
       <c r="B16" s="3" t="n">
         <v>0</v>
       </c>
       <c r="C16" s="3" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="D16" s="5" t="n">
-        <v>-0.6</v>
+        <v>0.13</v>
+      </c>
+      <c r="D16" s="4" t="n">
+        <v>-0.13</v>
       </c>
     </row>
     <row r="17">
@@ -1178,13 +1162,13 @@
         </is>
       </c>
       <c r="B17" s="3" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="C17" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="C17" s="3" t="n">
-        <v>0.97</v>
-      </c>
       <c r="D17" s="4" t="n">
-        <v>0.03</v>
+        <v>-0.09</v>
       </c>
     </row>
     <row r="18">
@@ -1194,13 +1178,13 @@
         </is>
       </c>
       <c r="B18" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" s="3" t="n">
         <v>0.26</v>
       </c>
-      <c r="C18" s="3" t="n">
-        <v>0.89</v>
-      </c>
-      <c r="D18" s="5" t="n">
-        <v>-0.63</v>
+      <c r="D18" s="4" t="n">
+        <v>-0.26</v>
       </c>
     </row>
     <row r="19">
@@ -1226,13 +1210,13 @@
         </is>
       </c>
       <c r="B20" s="3" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="C20" s="3" t="n">
         <v>0.16</v>
       </c>
-      <c r="C20" s="3" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="D20" s="5" t="n">
-        <v>-0.07000000000000001</v>
+      <c r="D20" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1242,13 +1226,13 @@
         </is>
       </c>
       <c r="B21" s="3" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="C21" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="C21" s="3" t="n">
-        <v>0.8100000000000001</v>
-      </c>
       <c r="D21" s="4" t="n">
-        <v>0.18</v>
+        <v>-0.12</v>
       </c>
     </row>
     <row r="22">
@@ -1258,61 +1242,45 @@
         </is>
       </c>
       <c r="B22" s="3" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="C22" s="3" t="n">
         <v>0.71</v>
       </c>
-      <c r="C22" s="3" t="n">
-        <v>0.6</v>
-      </c>
       <c r="D22" s="4" t="n">
-        <v>0.12</v>
+        <v>-0.07000000000000001</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="3" t="inlineStr">
         <is>
-          <t>RESILIENT LOGISTICS MGMT LLC</t>
+          <t>ROYAL T KARE LLC</t>
         </is>
       </c>
       <c r="B23" s="3" t="n">
-        <v>0</v>
+        <v>0.89</v>
       </c>
       <c r="C23" s="3" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-0.6</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="3" t="inlineStr">
         <is>
-          <t>ROYAL T KARE LLC</t>
+          <t>SERENITY CARE TRANSPORTATION LCC</t>
         </is>
       </c>
       <c r="B24" s="3" t="n">
-        <v>0.8</v>
+        <v>0.37</v>
       </c>
       <c r="C24" s="3" t="n">
-        <v>0.68</v>
-      </c>
-      <c r="D24" s="4" t="n">
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="3" t="inlineStr">
-        <is>
-          <t>SERENITY CARE TRANSPORTATION</t>
-        </is>
-      </c>
-      <c r="B25" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C25" s="3" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="D25" s="5" t="n">
-        <v>-0.61</v>
+        <v>0</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>0.37</v>
       </c>
     </row>
   </sheetData>
@@ -1326,7 +1294,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1334,7 +1302,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="32.3" customWidth="1" min="1" max="1"/>
+    <col width="44.3" customWidth="1" min="1" max="1"/>
     <col width="8.300000000000001" customWidth="1" min="2" max="2"/>
     <col width="10.3" customWidth="1" min="3" max="3"/>
     <col width="8.300000000000001" customWidth="1" min="4" max="4"/>
@@ -1413,7 +1381,7 @@
     <row r="5">
       <c r="A5" s="3" t="inlineStr">
         <is>
-          <t>BRANDON JACKSON</t>
+          <t>BREISHABREE TRANSPORTATION LLC</t>
         </is>
       </c>
       <c r="B5" s="3" t="n">
@@ -1429,7 +1397,7 @@
     <row r="6">
       <c r="A6" s="3" t="inlineStr">
         <is>
-          <t>BREISHABREE TRANSPORTATION LLC</t>
+          <t>BROOKES TRANSPORTATION, LLC</t>
         </is>
       </c>
       <c r="B6" s="3" t="n">
@@ -1445,7 +1413,7 @@
     <row r="7">
       <c r="A7" s="3" t="inlineStr">
         <is>
-          <t>BROOKES TRANSPORTATION, LLC</t>
+          <t>BTS INVESTORS GROUP, LLC</t>
         </is>
       </c>
       <c r="B7" s="3" t="n">
@@ -1461,7 +1429,7 @@
     <row r="8">
       <c r="A8" s="3" t="inlineStr">
         <is>
-          <t>BTS INVESTORS GROUP, LLC</t>
+          <t>CEASAR WS LLC</t>
         </is>
       </c>
       <c r="B8" s="3" t="n">
@@ -1477,7 +1445,7 @@
     <row r="9">
       <c r="A9" s="3" t="inlineStr">
         <is>
-          <t>CEASAR WS LLC</t>
+          <t>DEECAL ENTERPRISE</t>
         </is>
       </c>
       <c r="B9" s="3" t="n">
@@ -1493,7 +1461,7 @@
     <row r="10">
       <c r="A10" s="3" t="inlineStr">
         <is>
-          <t>HOUND OF JUSTICE</t>
+          <t>HEALTH DIRECT TRANSPORTATION SERVICES INC.</t>
         </is>
       </c>
       <c r="B10" s="3" t="n">
@@ -1509,7 +1477,7 @@
     <row r="11">
       <c r="A11" s="3" t="inlineStr">
         <is>
-          <t>HUB SOLUTIONS</t>
+          <t>HOUND OF JUSTICE</t>
         </is>
       </c>
       <c r="B11" s="3" t="n">
@@ -1525,7 +1493,7 @@
     <row r="12">
       <c r="A12" s="3" t="inlineStr">
         <is>
-          <t>HUNDREDFOLD SERVICES, LLC</t>
+          <t>HUB SOLUTIONS</t>
         </is>
       </c>
       <c r="B12" s="3" t="n">
@@ -1541,7 +1509,7 @@
     <row r="13">
       <c r="A13" s="3" t="inlineStr">
         <is>
-          <t>INNER CITY LOGISTICS LLC</t>
+          <t>IGWE SIX TRANSIT LLC</t>
         </is>
       </c>
       <c r="B13" s="3" t="n">
@@ -1557,7 +1525,7 @@
     <row r="14">
       <c r="A14" s="3" t="inlineStr">
         <is>
-          <t>LA PATRONA SERVICES LLC</t>
+          <t>INNER CITY LOGISTICS LLC</t>
         </is>
       </c>
       <c r="B14" s="3" t="n">
@@ -1573,7 +1541,7 @@
     <row r="15">
       <c r="A15" s="3" t="inlineStr">
         <is>
-          <t>LADY K HEALTHCARE</t>
+          <t>LA PATRONA SERVICES LLC</t>
         </is>
       </c>
       <c r="B15" s="3" t="n">
@@ -1589,7 +1557,7 @@
     <row r="16">
       <c r="A16" s="3" t="inlineStr">
         <is>
-          <t>LAQUESHA HENDERSON</t>
+          <t>LADY K HEALTHCARE</t>
         </is>
       </c>
       <c r="B16" s="3" t="n">
@@ -1701,7 +1669,7 @@
     <row r="23">
       <c r="A23" s="3" t="inlineStr">
         <is>
-          <t>RESILIENT LOGISTICS MGMT LLC</t>
+          <t>ROYAL T KARE LLC</t>
         </is>
       </c>
       <c r="B23" s="3" t="n">
@@ -1717,7 +1685,7 @@
     <row r="24">
       <c r="A24" s="3" t="inlineStr">
         <is>
-          <t>ROYAL T KARE LLC</t>
+          <t>SERENITY CARE TRANSPORTATION LCC</t>
         </is>
       </c>
       <c r="B24" s="3" t="n">
@@ -1727,22 +1695,6 @@
         <v>0</v>
       </c>
       <c r="D24" s="3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="3" t="inlineStr">
-        <is>
-          <t>SERENITY CARE TRANSPORTATION</t>
-        </is>
-      </c>
-      <c r="B25" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C25" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D25" s="3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1757,7 +1709,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1765,8 +1717,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="32.3" customWidth="1" min="1" max="1"/>
-    <col width="10.3" customWidth="1" min="2" max="2"/>
+    <col width="44.3" customWidth="1" min="1" max="1"/>
+    <col width="9.300000000000001" customWidth="1" min="2" max="2"/>
     <col width="10.3" customWidth="1" min="3" max="3"/>
     <col width="10.3" customWidth="1" min="4" max="4"/>
   </cols>
@@ -1800,13 +1752,13 @@
         </is>
       </c>
       <c r="B2" s="3" t="n">
+        <v>2153.73</v>
+      </c>
+      <c r="C2" s="3" t="n">
         <v>2388.74</v>
       </c>
-      <c r="C2" s="3" t="n">
-        <v>2219.26</v>
-      </c>
       <c r="D2" s="4" t="n">
-        <v>169.47</v>
+        <v>-235.01</v>
       </c>
     </row>
     <row r="3">
@@ -1816,13 +1768,13 @@
         </is>
       </c>
       <c r="B3" s="3" t="n">
+        <v>1978.62</v>
+      </c>
+      <c r="C3" s="3" t="n">
         <v>1750.53</v>
       </c>
-      <c r="C3" s="3" t="n">
-        <v>1710.34</v>
-      </c>
-      <c r="D3" s="4" t="n">
-        <v>40.19</v>
+      <c r="D3" s="5" t="n">
+        <v>228.1</v>
       </c>
     </row>
     <row r="4">
@@ -1832,205 +1784,205 @@
         </is>
       </c>
       <c r="B4" s="3" t="n">
+        <v>1706.75</v>
+      </c>
+      <c r="C4" s="3" t="n">
         <v>2043.9</v>
       </c>
-      <c r="C4" s="3" t="n">
-        <v>1828.86</v>
-      </c>
       <c r="D4" s="4" t="n">
-        <v>215.04</v>
+        <v>-337.15</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="inlineStr">
         <is>
-          <t>BRANDON JACKSON</t>
+          <t>BREISHABREE TRANSPORTATION LLC</t>
         </is>
       </c>
       <c r="B5" s="3" t="n">
-        <v>0</v>
+        <v>1754.88</v>
       </c>
       <c r="C5" s="3" t="n">
-        <v>1409.54</v>
-      </c>
-      <c r="D5" s="5" t="n">
-        <v>-1409.54</v>
+        <v>1898.75</v>
+      </c>
+      <c r="D5" s="4" t="n">
+        <v>-143.87</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="inlineStr">
         <is>
-          <t>BREISHABREE TRANSPORTATION LLC</t>
+          <t>BROOKES TRANSPORTATION, LLC</t>
         </is>
       </c>
       <c r="B6" s="3" t="n">
-        <v>1898.75</v>
+        <v>9561.07</v>
       </c>
       <c r="C6" s="3" t="n">
-        <v>1608.45</v>
+        <v>11238.22</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>290.3</v>
+        <v>-1677.15</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="3" t="inlineStr">
         <is>
-          <t>BROOKES TRANSPORTATION, LLC</t>
+          <t>BTS INVESTORS GROUP, LLC</t>
         </is>
       </c>
       <c r="B7" s="3" t="n">
-        <v>11238.22</v>
+        <v>1591.81</v>
       </c>
       <c r="C7" s="3" t="n">
-        <v>10572.64</v>
+        <v>1822.72</v>
       </c>
       <c r="D7" s="4" t="n">
-        <v>665.58</v>
+        <v>-230.91</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="3" t="inlineStr">
         <is>
-          <t>BTS INVESTORS GROUP, LLC</t>
+          <t>CEASAR WS LLC</t>
         </is>
       </c>
       <c r="B8" s="3" t="n">
-        <v>1822.72</v>
+        <v>3901.57</v>
       </c>
       <c r="C8" s="3" t="n">
-        <v>2004.99</v>
-      </c>
-      <c r="D8" s="5" t="n">
-        <v>-182.27</v>
+        <v>3998.4</v>
+      </c>
+      <c r="D8" s="4" t="n">
+        <v>-96.83</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="3" t="inlineStr">
         <is>
-          <t>CEASAR WS LLC</t>
+          <t>DEECAL ENTERPRISE</t>
         </is>
       </c>
       <c r="B9" s="3" t="n">
-        <v>3998.4</v>
+        <v>1551.36</v>
       </c>
       <c r="C9" s="3" t="n">
-        <v>3921.7</v>
-      </c>
-      <c r="D9" s="4" t="n">
-        <v>76.7</v>
+        <v>0</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>1551.36</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="3" t="inlineStr">
         <is>
-          <t>HOUND OF JUSTICE</t>
+          <t>HEALTH DIRECT TRANSPORTATION SERVICES INC.</t>
         </is>
       </c>
       <c r="B10" s="3" t="n">
-        <v>235.26</v>
+        <v>1188.1</v>
       </c>
       <c r="C10" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="D10" s="4" t="n">
-        <v>235.26</v>
+      <c r="D10" s="5" t="n">
+        <v>1188.1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="3" t="inlineStr">
         <is>
-          <t>HUB SOLUTIONS</t>
+          <t>HOUND OF JUSTICE</t>
         </is>
       </c>
       <c r="B11" s="3" t="n">
-        <v>2642.94</v>
+        <v>891.14</v>
       </c>
       <c r="C11" s="3" t="n">
-        <v>2300.42</v>
-      </c>
-      <c r="D11" s="4" t="n">
-        <v>342.53</v>
+        <v>235.26</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>655.87</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="3" t="inlineStr">
         <is>
-          <t>HUNDREDFOLD SERVICES, LLC</t>
+          <t>HUB SOLUTIONS</t>
         </is>
       </c>
       <c r="B12" s="3" t="n">
-        <v>0</v>
+        <v>2597.12</v>
       </c>
       <c r="C12" s="3" t="n">
-        <v>200.19</v>
-      </c>
-      <c r="D12" s="5" t="n">
-        <v>-200.19</v>
+        <v>2642.94</v>
+      </c>
+      <c r="D12" s="4" t="n">
+        <v>-45.82</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="3" t="inlineStr">
         <is>
-          <t>INNER CITY LOGISTICS LLC</t>
+          <t>IGWE SIX TRANSIT LLC</t>
         </is>
       </c>
       <c r="B13" s="3" t="n">
-        <v>3825.95</v>
+        <v>407.3</v>
       </c>
       <c r="C13" s="3" t="n">
-        <v>3878.18</v>
+        <v>0</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>-52.22</v>
+        <v>407.3</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="3" t="inlineStr">
         <is>
-          <t>LA PATRONA SERVICES LLC</t>
+          <t>INNER CITY LOGISTICS LLC</t>
         </is>
       </c>
       <c r="B14" s="3" t="n">
-        <v>2102.27</v>
+        <v>3096.99</v>
       </c>
       <c r="C14" s="3" t="n">
-        <v>2011.39</v>
+        <v>3825.95</v>
       </c>
       <c r="D14" s="4" t="n">
-        <v>90.88</v>
+        <v>-728.96</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="3" t="inlineStr">
         <is>
-          <t>LADY K HEALTHCARE</t>
+          <t>LA PATRONA SERVICES LLC</t>
         </is>
       </c>
       <c r="B15" s="3" t="n">
-        <v>117.5</v>
+        <v>1719.04</v>
       </c>
       <c r="C15" s="3" t="n">
-        <v>1721.86</v>
-      </c>
-      <c r="D15" s="5" t="n">
-        <v>-1604.35</v>
+        <v>2102.27</v>
+      </c>
+      <c r="D15" s="4" t="n">
+        <v>-383.23</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="3" t="inlineStr">
         <is>
-          <t>LAQUESHA HENDERSON</t>
+          <t>LADY K HEALTHCARE</t>
         </is>
       </c>
       <c r="B16" s="3" t="n">
         <v>0</v>
       </c>
       <c r="C16" s="3" t="n">
-        <v>1128.96</v>
-      </c>
-      <c r="D16" s="5" t="n">
-        <v>-1128.96</v>
+        <v>117.5</v>
+      </c>
+      <c r="D16" s="4" t="n">
+        <v>-117.5</v>
       </c>
     </row>
     <row r="17">
@@ -2040,13 +1992,13 @@
         </is>
       </c>
       <c r="B17" s="3" t="n">
+        <v>1705.22</v>
+      </c>
+      <c r="C17" s="3" t="n">
         <v>1965.31</v>
       </c>
-      <c r="C17" s="3" t="n">
-        <v>1900.8</v>
-      </c>
       <c r="D17" s="4" t="n">
-        <v>64.51000000000001</v>
+        <v>-260.1</v>
       </c>
     </row>
     <row r="18">
@@ -2056,13 +2008,13 @@
         </is>
       </c>
       <c r="B18" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" s="3" t="n">
         <v>224</v>
       </c>
-      <c r="C18" s="3" t="n">
-        <v>1640.45</v>
-      </c>
-      <c r="D18" s="5" t="n">
-        <v>-1416.45</v>
+      <c r="D18" s="4" t="n">
+        <v>-224</v>
       </c>
     </row>
     <row r="19">
@@ -2072,13 +2024,13 @@
         </is>
       </c>
       <c r="B19" s="3" t="n">
+        <v>1814.53</v>
+      </c>
+      <c r="C19" s="3" t="n">
         <v>1847.04</v>
       </c>
-      <c r="C19" s="3" t="n">
-        <v>1915.9</v>
-      </c>
-      <c r="D19" s="5" t="n">
-        <v>-68.86</v>
+      <c r="D19" s="4" t="n">
+        <v>-32.51</v>
       </c>
     </row>
     <row r="20">
@@ -2088,13 +2040,13 @@
         </is>
       </c>
       <c r="B20" s="3" t="n">
+        <v>2085.15</v>
+      </c>
+      <c r="C20" s="3" t="n">
         <v>2084.61</v>
       </c>
-      <c r="C20" s="3" t="n">
-        <v>3091.01</v>
-      </c>
       <c r="D20" s="5" t="n">
-        <v>-1006.4</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="21">
@@ -2104,13 +2056,13 @@
         </is>
       </c>
       <c r="B21" s="3" t="n">
+        <v>1799.94</v>
+      </c>
+      <c r="C21" s="3" t="n">
         <v>2012.67</v>
       </c>
-      <c r="C21" s="3" t="n">
-        <v>1902.59</v>
-      </c>
       <c r="D21" s="4" t="n">
-        <v>110.08</v>
+        <v>-212.74</v>
       </c>
     </row>
     <row r="22">
@@ -2120,61 +2072,45 @@
         </is>
       </c>
       <c r="B22" s="3" t="n">
+        <v>3440.8</v>
+      </c>
+      <c r="C22" s="3" t="n">
         <v>3867.57</v>
       </c>
-      <c r="C22" s="3" t="n">
-        <v>3283.31</v>
-      </c>
       <c r="D22" s="4" t="n">
-        <v>584.26</v>
+        <v>-426.77</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="3" t="inlineStr">
         <is>
-          <t>RESILIENT LOGISTICS MGMT LLC</t>
+          <t>ROYAL T KARE LLC</t>
         </is>
       </c>
       <c r="B23" s="3" t="n">
-        <v>0</v>
+        <v>9365.780000000001</v>
       </c>
       <c r="C23" s="3" t="n">
-        <v>1289.01</v>
-      </c>
-      <c r="D23" s="5" t="n">
-        <v>-1289.01</v>
+        <v>9963.09</v>
+      </c>
+      <c r="D23" s="4" t="n">
+        <v>-597.3099999999999</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="3" t="inlineStr">
         <is>
-          <t>ROYAL T KARE LLC</t>
+          <t>SERENITY CARE TRANSPORTATION LCC</t>
         </is>
       </c>
       <c r="B24" s="3" t="n">
-        <v>9963.09</v>
+        <v>346.62</v>
       </c>
       <c r="C24" s="3" t="n">
-        <v>11229.52</v>
+        <v>0</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>-1266.43</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="3" t="inlineStr">
-        <is>
-          <t>SERENITY CARE TRANSPORTATION</t>
-        </is>
-      </c>
-      <c r="B25" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C25" s="3" t="n">
-        <v>633.6</v>
-      </c>
-      <c r="D25" s="5" t="n">
-        <v>-633.6</v>
+        <v>346.62</v>
       </c>
     </row>
   </sheetData>
@@ -2188,7 +2124,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2196,8 +2132,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="32.3" customWidth="1" min="1" max="1"/>
-    <col width="10.3" customWidth="1" min="2" max="2"/>
+    <col width="44.3" customWidth="1" min="1" max="1"/>
+    <col width="9.300000000000001" customWidth="1" min="2" max="2"/>
     <col width="10.3" customWidth="1" min="3" max="3"/>
     <col width="10.3" customWidth="1" min="4" max="4"/>
   </cols>
@@ -2231,13 +2167,13 @@
         </is>
       </c>
       <c r="B2" s="3" t="n">
+        <v>2504.77</v>
+      </c>
+      <c r="C2" s="3" t="n">
         <v>2985.92</v>
       </c>
-      <c r="C2" s="3" t="n">
-        <v>2774.08</v>
-      </c>
       <c r="D2" s="4" t="n">
-        <v>211.84</v>
+        <v>-481.15</v>
       </c>
     </row>
     <row r="3">
@@ -2247,13 +2183,13 @@
         </is>
       </c>
       <c r="B3" s="3" t="n">
+        <v>2473.28</v>
+      </c>
+      <c r="C3" s="3" t="n">
         <v>1870.14</v>
       </c>
-      <c r="C3" s="3" t="n">
-        <v>1764.16</v>
-      </c>
-      <c r="D3" s="4" t="n">
-        <v>105.98</v>
+      <c r="D3" s="5" t="n">
+        <v>603.14</v>
       </c>
     </row>
     <row r="4">
@@ -2263,205 +2199,205 @@
         </is>
       </c>
       <c r="B4" s="3" t="n">
+        <v>1938.82</v>
+      </c>
+      <c r="C4" s="3" t="n">
         <v>2554.88</v>
       </c>
-      <c r="C4" s="3" t="n">
-        <v>2073.41</v>
-      </c>
       <c r="D4" s="4" t="n">
-        <v>481.47</v>
+        <v>-616.0599999999999</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="inlineStr">
         <is>
-          <t>BRANDON JACKSON</t>
+          <t>BREISHABREE TRANSPORTATION LLC</t>
         </is>
       </c>
       <c r="B5" s="3" t="n">
-        <v>0</v>
+        <v>1996.29</v>
       </c>
       <c r="C5" s="3" t="n">
-        <v>1639.94</v>
-      </c>
-      <c r="D5" s="5" t="n">
-        <v>-1639.94</v>
+        <v>2373.44</v>
+      </c>
+      <c r="D5" s="4" t="n">
+        <v>-377.15</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="inlineStr">
         <is>
-          <t>BREISHABREE TRANSPORTATION LLC</t>
+          <t>BROOKES TRANSPORTATION, LLC</t>
         </is>
       </c>
       <c r="B6" s="3" t="n">
-        <v>2373.44</v>
+        <v>9561.07</v>
       </c>
       <c r="C6" s="3" t="n">
-        <v>1833.22</v>
+        <v>11238.22</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>540.22</v>
+        <v>-1677.15</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="3" t="inlineStr">
         <is>
-          <t>BROOKES TRANSPORTATION, LLC</t>
+          <t>BTS INVESTORS GROUP, LLC</t>
         </is>
       </c>
       <c r="B7" s="3" t="n">
-        <v>11238.22</v>
+        <v>1873.66</v>
       </c>
       <c r="C7" s="3" t="n">
-        <v>10572.64</v>
+        <v>2093.89</v>
       </c>
       <c r="D7" s="4" t="n">
-        <v>665.58</v>
+        <v>-220.22</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="3" t="inlineStr">
         <is>
-          <t>BTS INVESTORS GROUP, LLC</t>
+          <t>CEASAR WS LLC</t>
         </is>
       </c>
       <c r="B8" s="3" t="n">
-        <v>2093.89</v>
+        <v>4876.96</v>
       </c>
       <c r="C8" s="3" t="n">
-        <v>2335.07</v>
-      </c>
-      <c r="D8" s="5" t="n">
-        <v>-241.18</v>
+        <v>4998</v>
+      </c>
+      <c r="D8" s="4" t="n">
+        <v>-121.04</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="3" t="inlineStr">
         <is>
-          <t>CEASAR WS LLC</t>
+          <t>DEECAL ENTERPRISE</t>
         </is>
       </c>
       <c r="B9" s="3" t="n">
-        <v>4998</v>
+        <v>1551.36</v>
       </c>
       <c r="C9" s="3" t="n">
-        <v>4902.12</v>
-      </c>
-      <c r="D9" s="4" t="n">
-        <v>95.88</v>
+        <v>0</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>1551.36</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="3" t="inlineStr">
         <is>
-          <t>HOUND OF JUSTICE</t>
+          <t>HEALTH DIRECT TRANSPORTATION SERVICES INC.</t>
         </is>
       </c>
       <c r="B10" s="3" t="n">
-        <v>235.26</v>
+        <v>1422.91</v>
       </c>
       <c r="C10" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="D10" s="4" t="n">
-        <v>235.26</v>
+      <c r="D10" s="5" t="n">
+        <v>1422.91</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="3" t="inlineStr">
         <is>
-          <t>HUB SOLUTIONS</t>
+          <t>HOUND OF JUSTICE</t>
         </is>
       </c>
       <c r="B11" s="3" t="n">
-        <v>3303.68</v>
+        <v>891.14</v>
       </c>
       <c r="C11" s="3" t="n">
-        <v>2665.86</v>
-      </c>
-      <c r="D11" s="4" t="n">
-        <v>637.8200000000001</v>
+        <v>235.26</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>655.87</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="3" t="inlineStr">
         <is>
-          <t>HUNDREDFOLD SERVICES, LLC</t>
+          <t>HUB SOLUTIONS</t>
         </is>
       </c>
       <c r="B12" s="3" t="n">
-        <v>0</v>
+        <v>3246.4</v>
       </c>
       <c r="C12" s="3" t="n">
-        <v>200.19</v>
-      </c>
-      <c r="D12" s="5" t="n">
-        <v>-200.19</v>
+        <v>3303.68</v>
+      </c>
+      <c r="D12" s="4" t="n">
+        <v>-57.28</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="3" t="inlineStr">
         <is>
-          <t>INNER CITY LOGISTICS LLC</t>
+          <t>IGWE SIX TRANSIT LLC</t>
         </is>
       </c>
       <c r="B13" s="3" t="n">
-        <v>4304.2</v>
+        <v>407.3</v>
       </c>
       <c r="C13" s="3" t="n">
-        <v>4847.72</v>
+        <v>0</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>-543.52</v>
+        <v>407.3</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="3" t="inlineStr">
         <is>
-          <t>LA PATRONA SERVICES LLC</t>
+          <t>INNER CITY LOGISTICS LLC</t>
         </is>
       </c>
       <c r="B14" s="3" t="n">
-        <v>2627.84</v>
+        <v>3096.99</v>
       </c>
       <c r="C14" s="3" t="n">
-        <v>2514.24</v>
+        <v>4304.2</v>
       </c>
       <c r="D14" s="4" t="n">
-        <v>113.6</v>
+        <v>-1207.2</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="3" t="inlineStr">
         <is>
-          <t>LADY K HEALTHCARE</t>
+          <t>LA PATRONA SERVICES LLC</t>
         </is>
       </c>
       <c r="B15" s="3" t="n">
-        <v>117.5</v>
+        <v>1948.48</v>
       </c>
       <c r="C15" s="3" t="n">
-        <v>1948.54</v>
-      </c>
-      <c r="D15" s="5" t="n">
-        <v>-1831.04</v>
+        <v>2627.84</v>
+      </c>
+      <c r="D15" s="4" t="n">
+        <v>-679.36</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="3" t="inlineStr">
         <is>
-          <t>LAQUESHA HENDERSON</t>
+          <t>LADY K HEALTHCARE</t>
         </is>
       </c>
       <c r="B16" s="3" t="n">
         <v>0</v>
       </c>
       <c r="C16" s="3" t="n">
-        <v>1372.67</v>
-      </c>
-      <c r="D16" s="5" t="n">
-        <v>-1372.67</v>
+        <v>117.5</v>
+      </c>
+      <c r="D16" s="4" t="n">
+        <v>-117.5</v>
       </c>
     </row>
     <row r="17">
@@ -2471,13 +2407,13 @@
         </is>
       </c>
       <c r="B17" s="3" t="n">
+        <v>1937.54</v>
+      </c>
+      <c r="C17" s="3" t="n">
         <v>2456.64</v>
       </c>
-      <c r="C17" s="3" t="n">
-        <v>2195.14</v>
-      </c>
       <c r="D17" s="4" t="n">
-        <v>261.5</v>
+        <v>-519.1</v>
       </c>
     </row>
     <row r="18">
@@ -2487,13 +2423,13 @@
         </is>
       </c>
       <c r="B18" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" s="3" t="n">
         <v>224</v>
       </c>
-      <c r="C18" s="3" t="n">
-        <v>1889.34</v>
-      </c>
-      <c r="D18" s="5" t="n">
-        <v>-1665.34</v>
+      <c r="D18" s="4" t="n">
+        <v>-224</v>
       </c>
     </row>
     <row r="19">
@@ -2503,13 +2439,13 @@
         </is>
       </c>
       <c r="B19" s="3" t="n">
+        <v>2268.16</v>
+      </c>
+      <c r="C19" s="3" t="n">
         <v>2308.8</v>
       </c>
-      <c r="C19" s="3" t="n">
-        <v>2394.88</v>
-      </c>
-      <c r="D19" s="5" t="n">
-        <v>-86.08</v>
+      <c r="D19" s="4" t="n">
+        <v>-40.64</v>
       </c>
     </row>
     <row r="20">
@@ -2519,13 +2455,13 @@
         </is>
       </c>
       <c r="B20" s="3" t="n">
+        <v>2085.15</v>
+      </c>
+      <c r="C20" s="3" t="n">
         <v>2084.61</v>
       </c>
-      <c r="C20" s="3" t="n">
-        <v>3091.01</v>
-      </c>
       <c r="D20" s="5" t="n">
-        <v>-1006.4</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="21">
@@ -2535,13 +2471,13 @@
         </is>
       </c>
       <c r="B21" s="3" t="n">
+        <v>2059.58</v>
+      </c>
+      <c r="C21" s="3" t="n">
         <v>2515.84</v>
       </c>
-      <c r="C21" s="3" t="n">
-        <v>1902.59</v>
-      </c>
       <c r="D21" s="4" t="n">
-        <v>613.25</v>
+        <v>-456.26</v>
       </c>
     </row>
     <row r="22">
@@ -2551,61 +2487,45 @@
         </is>
       </c>
       <c r="B22" s="3" t="n">
+        <v>3440.8</v>
+      </c>
+      <c r="C22" s="3" t="n">
         <v>3867.57</v>
       </c>
-      <c r="C22" s="3" t="n">
-        <v>3283.31</v>
-      </c>
       <c r="D22" s="4" t="n">
-        <v>584.26</v>
+        <v>-426.77</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="3" t="inlineStr">
         <is>
-          <t>RESILIENT LOGISTICS MGMT LLC</t>
+          <t>ROYAL T KARE LLC</t>
         </is>
       </c>
       <c r="B23" s="3" t="n">
-        <v>0</v>
+        <v>9365.780000000001</v>
       </c>
       <c r="C23" s="3" t="n">
-        <v>1289.01</v>
-      </c>
-      <c r="D23" s="5" t="n">
-        <v>-1289.01</v>
+        <v>9963.09</v>
+      </c>
+      <c r="D23" s="4" t="n">
+        <v>-597.3099999999999</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="3" t="inlineStr">
         <is>
-          <t>ROYAL T KARE LLC</t>
+          <t>SERENITY CARE TRANSPORTATION LCC</t>
         </is>
       </c>
       <c r="B24" s="3" t="n">
-        <v>9963.09</v>
+        <v>346.62</v>
       </c>
       <c r="C24" s="3" t="n">
-        <v>11229.52</v>
+        <v>0</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>-1266.43</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="3" t="inlineStr">
-        <is>
-          <t>SERENITY CARE TRANSPORTATION</t>
-        </is>
-      </c>
-      <c r="B25" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C25" s="3" t="n">
-        <v>633.6</v>
-      </c>
-      <c r="D25" s="5" t="n">
-        <v>-633.6</v>
+        <v>346.62</v>
       </c>
     </row>
   </sheetData>
@@ -2619,7 +2539,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B52"/>
+  <dimension ref="A1:B48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2651,7 +2571,7 @@
       </c>
       <c r="B2" s="3" t="inlineStr">
         <is>
-          <t>ASHLEY BROWN</t>
+          <t>ALEX THOMAS</t>
         </is>
       </c>
     </row>
@@ -2663,7 +2583,7 @@
       </c>
       <c r="B3" s="3" t="inlineStr">
         <is>
-          <t>ASHLEY CHATMAN</t>
+          <t>ASHLEY BROWN</t>
         </is>
       </c>
     </row>
@@ -2675,7 +2595,7 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>AYANAH TERRY</t>
+          <t>ASHLEY CHATMAN</t>
         </is>
       </c>
     </row>
@@ -2687,7 +2607,7 @@
       </c>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>BENNY YOUNG</t>
+          <t>AYANAH TERRY</t>
         </is>
       </c>
     </row>
@@ -2699,7 +2619,7 @@
       </c>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>BRANDON JACKSON</t>
+          <t>BENNY YOUNG</t>
         </is>
       </c>
     </row>
@@ -2711,7 +2631,7 @@
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>BRITTANY GREEN</t>
+          <t>BRANDON JACKSON</t>
         </is>
       </c>
     </row>
@@ -2723,7 +2643,7 @@
       </c>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>BRYANT MATTHEWS</t>
+          <t>BRITTANY GREEN</t>
         </is>
       </c>
     </row>
@@ -2735,7 +2655,7 @@
       </c>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>CATREANA ROBINSON</t>
+          <t>BRYANT MATTHEWS</t>
         </is>
       </c>
     </row>
@@ -2747,7 +2667,7 @@
       </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>CHADWICK MILLER</t>
+          <t>CATREANA ROBINSON</t>
         </is>
       </c>
     </row>
@@ -2759,7 +2679,7 @@
       </c>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>CHRISTOPHER BUTLER</t>
+          <t>CHADWICK MILLER</t>
         </is>
       </c>
     </row>
@@ -2771,67 +2691,67 @@
       </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>COLYNN TENNYSON-NIXON</t>
+          <t>CHRISTOPHER BUTLER</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="3" t="inlineStr">
         <is>
-          <t>DAVID OAKES</t>
+          <t>DEDRICC WILSON</t>
         </is>
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>DEDRICC WILSON</t>
+          <t>COLYNN TENNYSON-NIXON</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="3" t="inlineStr">
         <is>
-          <t>DEDRICC WILSON</t>
+          <t>DIAMOND LEGGETT</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>DIAMOND LEGGETT</t>
+          <t>DAVID OAKES</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="3" t="inlineStr">
         <is>
-          <t>DIAMOND LEGGETT</t>
+          <t>ELIZABETH GARCIA</t>
         </is>
       </c>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>ELIZABETH GARCIA</t>
+          <t>DEDRICC WILSON</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="3" t="inlineStr">
         <is>
-          <t>ELIZABETH GARCIA</t>
+          <t>ELVA GARCIA</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>ELVA GARCIA</t>
+          <t>DIAMOND LEGGETT</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="3" t="inlineStr">
         <is>
-          <t>ELVA GARCIA</t>
+          <t>FITZGERALD MOORE</t>
         </is>
       </c>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>FITZGERALD MOORE</t>
+          <t>DIANA VILLALPANDO</t>
         </is>
       </c>
     </row>
@@ -2843,7 +2763,7 @@
       </c>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>JACQUELINE HARRIS</t>
+          <t>ELIZABETH GARCIA</t>
         </is>
       </c>
     </row>
@@ -2855,7 +2775,7 @@
       </c>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>JALICEA MAYBERRY</t>
+          <t>ELVA GARCIA</t>
         </is>
       </c>
     </row>
@@ -2867,7 +2787,7 @@
       </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>JAMES PHILLIPS</t>
+          <t>JACQUELINE HARRIS</t>
         </is>
       </c>
     </row>
@@ -2879,7 +2799,7 @@
       </c>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>JANET SUTTON</t>
+          <t>JALICEA MAYBERRY</t>
         </is>
       </c>
     </row>
@@ -2891,122 +2811,122 @@
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>JOHNATHAN DELAROSA</t>
+          <t>JANET SUTTON</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="3" t="inlineStr">
         <is>
-          <t>JOSHUA GEE</t>
+          <t>KENDRICK GASSAWAY</t>
         </is>
       </c>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>KENDRICK GASSAWAY</t>
+          <t>JOHNATHAN DELAROSA</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="3" t="inlineStr">
         <is>
-          <t>KARINA HERNANDEZ</t>
+          <t>KIMBERLY ROBBINS</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>KIMBERLY ROBBINS</t>
+          <t>JOY JENKINS</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="3" t="inlineStr">
         <is>
-          <t>KENDRICK GASSAWAY</t>
+          <t>LEON KING</t>
         </is>
       </c>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>LEON KING</t>
+          <t>KENNETH CALVIN</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="3" t="inlineStr">
         <is>
-          <t>KENNETH SMITH</t>
+          <t>LINDA HOLLAND</t>
         </is>
       </c>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>LINDA HOLLAND</t>
+          <t>LEON KING</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="3" t="inlineStr">
         <is>
-          <t>KIMBERLY ROBBINS</t>
+          <t>LOVEDAY IGWE</t>
         </is>
       </c>
       <c r="B27" s="3" t="inlineStr">
         <is>
-          <t>LOVEDAY IGWE</t>
+          <t>LINDA HOLLAND</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="3" t="inlineStr">
         <is>
-          <t>LAQUESHA HENDERSON</t>
+          <t>MANNY GOMEZ</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>MANNY GOMEZ</t>
+          <t>LOVEDAY IGWE</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="3" t="inlineStr">
         <is>
-          <t>LINDA HOLLAND</t>
+          <t>MARK KABAH</t>
         </is>
       </c>
       <c r="B29" s="3" t="inlineStr">
         <is>
-          <t>MARK KABAH</t>
+          <t>MANNY GOMEZ</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="3" t="inlineStr">
         <is>
-          <t>LOVEDAY IGWE</t>
+          <t>MIA VORTICE</t>
         </is>
       </c>
       <c r="B30" s="3" t="inlineStr">
         <is>
-          <t>MIA VORTICE</t>
+          <t>MARK KABAH</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="3" t="inlineStr">
         <is>
-          <t>MANNY GOMEZ</t>
+          <t>MICHAEL SMITH</t>
         </is>
       </c>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>MICHAEL SMITH</t>
+          <t>MIA VORTICE</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="3" t="inlineStr">
         <is>
-          <t>MARK BROWN</t>
+          <t>MIRO PASKALEV</t>
         </is>
       </c>
       <c r="B32" s="3" t="inlineStr">
@@ -3018,7 +2938,7 @@
     <row r="33">
       <c r="A33" s="3" t="inlineStr">
         <is>
-          <t>MARK KABAH</t>
+          <t>NATASHA TITTLE</t>
         </is>
       </c>
       <c r="B33" s="3" t="inlineStr">
@@ -3030,7 +2950,7 @@
     <row r="34">
       <c r="A34" s="3" t="inlineStr">
         <is>
-          <t>MIA VORTICE</t>
+          <t>QAYSSAR ALGBURI</t>
         </is>
       </c>
       <c r="B34" s="3" t="inlineStr">
@@ -3042,190 +2962,158 @@
     <row r="35">
       <c r="A35" s="3" t="inlineStr">
         <is>
-          <t>MICHAEL SMITH</t>
+          <t>RIC SHANA SANDERS</t>
         </is>
       </c>
       <c r="B35" s="3" t="inlineStr">
         <is>
-          <t>RIC SHANA SANDERS</t>
+          <t>RAE MESHA LEE</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="3" t="inlineStr">
         <is>
-          <t>MIRO PASKALEV</t>
+          <t>SARAH JONES</t>
         </is>
       </c>
       <c r="B36" s="3" t="inlineStr">
         <is>
-          <t>SARAH JONES</t>
+          <t>RAPHELS UBAWIKE</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="3" t="inlineStr">
         <is>
-          <t>NATASHA TITTLE</t>
+          <t>SHAMARA SCALES</t>
         </is>
       </c>
       <c r="B37" s="3" t="inlineStr">
         <is>
-          <t>SHAMARA SCALES</t>
+          <t>RIC SHANA SANDERS</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="3" t="inlineStr">
         <is>
-          <t>QAYSSAR ALGBURI</t>
+          <t>SHAMBREISHA SPENCER</t>
         </is>
       </c>
       <c r="B38" s="3" t="inlineStr">
         <is>
-          <t>SHAMBREISHA SPENCER</t>
+          <t>SARAH JONES</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="3" t="inlineStr">
         <is>
-          <t>RIC SHANA SANDERS</t>
+          <t>SHEILA JONES</t>
         </is>
       </c>
       <c r="B39" s="3" t="inlineStr">
         <is>
-          <t>SHEILA JONES</t>
+          <t>SHAMARA SCALES</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="3" t="inlineStr">
         <is>
-          <t>ROCHELLE DAWSON</t>
+          <t>SHURONDA MOSLEY</t>
         </is>
       </c>
       <c r="B40" s="3" t="inlineStr">
         <is>
-          <t>SHURONDA MOSLEY</t>
+          <t>SHAMBREISHA SPENCER</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="3" t="inlineStr">
         <is>
-          <t>SARAH JONES</t>
+          <t>TAIESHA MAJOR</t>
         </is>
       </c>
       <c r="B41" s="3" t="inlineStr">
         <is>
-          <t>TAIESHA MAJOR</t>
+          <t>SHEILA JONES</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="3" t="inlineStr">
         <is>
-          <t>SHAMARA SCALES</t>
+          <t>TMYRA FRANCIS</t>
         </is>
       </c>
       <c r="B42" s="3" t="inlineStr">
         <is>
-          <t>TMYRA FRANCIS</t>
+          <t>TAIESHA MAJOR</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="3" t="inlineStr">
         <is>
-          <t>SHAMBREISHA SPENCER</t>
+          <t>TROY SIMS</t>
         </is>
       </c>
       <c r="B43" s="3" t="inlineStr">
         <is>
-          <t>TROY SIMS</t>
+          <t>TIFFANY MURDOCK</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="3" t="inlineStr">
         <is>
-          <t>SHEILA JONES</t>
+          <t>ULYSSES GRIFFIN</t>
         </is>
       </c>
       <c r="B44" s="3" t="inlineStr">
         <is>
-          <t>ULYSSES GRIFFIN</t>
+          <t>TMYRA FRANCIS</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="3" t="inlineStr">
         <is>
-          <t>SHIQWEDA BROWN</t>
+          <t>URECHA DUNN</t>
         </is>
       </c>
       <c r="B45" s="3" t="inlineStr">
         <is>
-          <t>URECHA DUNN</t>
+          <t>TROY SIMS</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="3" t="inlineStr">
         <is>
-          <t>SHURONDA MOSLEY</t>
+          <t>VALECIA BROOKS</t>
         </is>
       </c>
       <c r="B46" s="3" t="inlineStr">
         <is>
-          <t>VALECIA BROOKS</t>
+          <t>URECHA DUNN</t>
         </is>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="3" t="inlineStr">
-        <is>
-          <t>TAIESHA MAJOR</t>
-        </is>
-      </c>
-      <c r="B47" s="3" t="inlineStr"/>
+      <c r="A47" s="3" t="inlineStr"/>
+      <c r="B47" s="3" t="inlineStr">
+        <is>
+          <t>YOHANNES MEKONNEN</t>
+        </is>
+      </c>
     </row>
     <row r="48">
-      <c r="A48" s="3" t="inlineStr">
-        <is>
-          <t>TMYRA FRANCIS</t>
-        </is>
-      </c>
+      <c r="A48" s="3" t="inlineStr"/>
       <c r="B48" s="3" t="inlineStr"/>
-    </row>
-    <row r="49">
-      <c r="A49" s="3" t="inlineStr">
-        <is>
-          <t>TROY SIMS</t>
-        </is>
-      </c>
-      <c r="B49" s="3" t="inlineStr"/>
-    </row>
-    <row r="50">
-      <c r="A50" s="3" t="inlineStr">
-        <is>
-          <t>ULYSSES GRIFFIN</t>
-        </is>
-      </c>
-      <c r="B50" s="3" t="inlineStr"/>
-    </row>
-    <row r="51">
-      <c r="A51" s="3" t="inlineStr">
-        <is>
-          <t>URECHA DUNN</t>
-        </is>
-      </c>
-      <c r="B51" s="3" t="inlineStr"/>
-    </row>
-    <row r="52">
-      <c r="A52" s="3" t="inlineStr"/>
-      <c r="B52" s="3" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
